--- a/28ID/28ID MOXA Configuration.xlsx
+++ b/28ID/28ID MOXA Configuration.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB93D429-0226-4BE3-AD4E-1BC75A3E67E6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18AF0447-240C-4993-BB00-FBF250619F99}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -263,7 +263,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -458,11 +458,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -470,12 +515,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -483,12 +522,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -499,17 +532,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -524,15 +548,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -587,21 +602,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -886,7 +921,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q18" sqref="Q18"/>
+      <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -901,1066 +936,1066 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3" t="s">
+      <c r="E1" s="44"/>
+      <c r="F1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="22" t="s">
+      <c r="E2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="22" t="s">
+      <c r="I2" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="J2" s="22" t="s">
+      <c r="J2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="22" t="s">
+      <c r="K2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="22" t="s">
+      <c r="L2" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="9" t="s">
+      <c r="A3" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="10">
-        <v>1</v>
-      </c>
-      <c r="G3" s="11"/>
-      <c r="H3" s="12">
+      <c r="E3" s="41"/>
+      <c r="F3" s="6">
+        <v>1</v>
+      </c>
+      <c r="G3" s="7"/>
+      <c r="H3" s="8">
         <v>115200</v>
       </c>
-      <c r="I3" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" s="12">
-        <v>8</v>
-      </c>
-      <c r="L3" s="13">
+      <c r="I3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="8">
+        <v>8</v>
+      </c>
+      <c r="L3" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="5">
+      <c r="A4" s="39"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="3">
         <v>2</v>
       </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="7">
+      <c r="G4" s="4"/>
+      <c r="H4" s="5">
         <v>115200</v>
       </c>
-      <c r="I4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="7">
-        <v>8</v>
-      </c>
-      <c r="L4" s="15">
+      <c r="I4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="5">
+        <v>8</v>
+      </c>
+      <c r="L4" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="5">
+      <c r="A5" s="39"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="3">
         <v>3</v>
       </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="7">
+      <c r="G5" s="4"/>
+      <c r="H5" s="5">
         <v>115200</v>
       </c>
-      <c r="I5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" s="7">
-        <v>8</v>
-      </c>
-      <c r="L5" s="15">
+      <c r="I5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="5">
+        <v>8</v>
+      </c>
+      <c r="L5" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="5">
+      <c r="A6" s="39"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="3">
         <v>4</v>
       </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="7">
+      <c r="G6" s="4"/>
+      <c r="H6" s="5">
         <v>115200</v>
       </c>
-      <c r="I6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K6" s="7">
-        <v>8</v>
-      </c>
-      <c r="L6" s="15">
+      <c r="I6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="5">
+        <v>8</v>
+      </c>
+      <c r="L6" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="5">
+      <c r="A7" s="39"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="3">
         <v>5</v>
       </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="7">
+      <c r="G7" s="4"/>
+      <c r="H7" s="5">
         <v>115200</v>
       </c>
-      <c r="I7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K7" s="7">
-        <v>8</v>
-      </c>
-      <c r="L7" s="15">
+      <c r="I7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" s="5">
+        <v>8</v>
+      </c>
+      <c r="L7" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="5">
+      <c r="A8" s="39"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="3">
         <v>6</v>
       </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="7">
+      <c r="G8" s="4"/>
+      <c r="H8" s="5">
         <v>115200</v>
       </c>
-      <c r="I8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K8" s="7">
-        <v>8</v>
-      </c>
-      <c r="L8" s="15">
+      <c r="I8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="5">
+        <v>8</v>
+      </c>
+      <c r="L8" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="5">
+      <c r="A9" s="39"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="3">
         <v>7</v>
       </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="7">
+      <c r="G9" s="4"/>
+      <c r="H9" s="5">
         <v>9600</v>
       </c>
-      <c r="I9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K9" s="7">
-        <v>8</v>
-      </c>
-      <c r="L9" s="15">
+      <c r="I9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" s="5">
+        <v>8</v>
+      </c>
+      <c r="L9" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="5">
-        <v>8</v>
-      </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="7">
+      <c r="A10" s="39"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="3">
+        <v>8</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="5">
         <v>115200</v>
       </c>
-      <c r="I10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K10" s="7">
-        <v>8</v>
-      </c>
-      <c r="L10" s="15">
+      <c r="I10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" s="5">
+        <v>8</v>
+      </c>
+      <c r="L10" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="5">
+      <c r="A11" s="39"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="3">
         <v>9</v>
       </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="7">
+      <c r="G11" s="4"/>
+      <c r="H11" s="5">
         <v>115200</v>
       </c>
-      <c r="I11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K11" s="7">
-        <v>8</v>
-      </c>
-      <c r="L11" s="15">
+      <c r="I11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" s="5">
+        <v>8</v>
+      </c>
+      <c r="L11" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="5">
+      <c r="A12" s="39"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="3">
         <v>10</v>
       </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="7">
+      <c r="G12" s="4"/>
+      <c r="H12" s="5">
         <v>115200</v>
       </c>
-      <c r="I12" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K12" s="7">
-        <v>8</v>
-      </c>
-      <c r="L12" s="15">
+      <c r="I12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K12" s="5">
+        <v>8</v>
+      </c>
+      <c r="L12" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="5">
+      <c r="A13" s="39"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="3">
         <v>11</v>
       </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="7">
+      <c r="G13" s="4"/>
+      <c r="H13" s="5">
         <v>115200</v>
       </c>
-      <c r="I13" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K13" s="7">
-        <v>8</v>
-      </c>
-      <c r="L13" s="15">
+      <c r="I13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13" s="5">
+        <v>8</v>
+      </c>
+      <c r="L13" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="5">
+      <c r="A14" s="39"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="3">
         <v>12</v>
       </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="7">
+      <c r="G14" s="4"/>
+      <c r="H14" s="5">
         <v>115200</v>
       </c>
-      <c r="I14" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K14" s="7">
-        <v>8</v>
-      </c>
-      <c r="L14" s="15">
+      <c r="I14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K14" s="5">
+        <v>8</v>
+      </c>
+      <c r="L14" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="5">
+      <c r="A15" s="39"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="3">
         <v>13</v>
       </c>
-      <c r="G15" s="6"/>
-      <c r="H15" s="7">
+      <c r="G15" s="4"/>
+      <c r="H15" s="5">
         <v>115200</v>
       </c>
-      <c r="I15" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K15" s="7">
-        <v>8</v>
-      </c>
-      <c r="L15" s="15">
+      <c r="I15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K15" s="5">
+        <v>8</v>
+      </c>
+      <c r="L15" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="5">
-        <v>14</v>
-      </c>
-      <c r="G16" s="6"/>
-      <c r="H16" s="7">
+      <c r="A16" s="39"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="3">
+        <v>14</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="5">
         <v>115200</v>
       </c>
-      <c r="I16" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K16" s="7">
-        <v>8</v>
-      </c>
-      <c r="L16" s="15">
+      <c r="I16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K16" s="5">
+        <v>8</v>
+      </c>
+      <c r="L16" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="5">
+      <c r="A17" s="39"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="3">
         <v>15</v>
       </c>
-      <c r="G17" s="6"/>
-      <c r="H17" s="7">
+      <c r="G17" s="4"/>
+      <c r="H17" s="5">
         <v>9600</v>
       </c>
-      <c r="I17" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K17" s="7">
-        <v>8</v>
-      </c>
-      <c r="L17" s="15">
+      <c r="I17" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K17" s="5">
+        <v>8</v>
+      </c>
+      <c r="L17" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="16"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="18">
+      <c r="A18" s="40"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="11">
         <v>16</v>
       </c>
-      <c r="G18" s="19"/>
-      <c r="H18" s="20">
+      <c r="G18" s="12"/>
+      <c r="H18" s="13">
         <v>9600</v>
       </c>
-      <c r="I18" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="J18" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="K18" s="20">
-        <v>8</v>
-      </c>
-      <c r="L18" s="21">
+      <c r="I18" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="J18" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="K18" s="13">
+        <v>8</v>
+      </c>
+      <c r="L18" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9" t="s">
+      <c r="C19" s="41"/>
+      <c r="D19" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="10">
-        <v>1</v>
-      </c>
-      <c r="G19" s="11" t="s">
+      <c r="E19" s="41"/>
+      <c r="F19" s="6">
+        <v>1</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H19" s="12">
+      <c r="H19" s="8">
         <v>9600</v>
       </c>
-      <c r="I19" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="J19" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="K19" s="12">
-        <v>8</v>
-      </c>
-      <c r="L19" s="13">
+      <c r="I19" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="K19" s="8">
+        <v>8</v>
+      </c>
+      <c r="L19" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="5">
+      <c r="A20" s="39"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="3">
         <v>2</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="G20" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H20" s="5">
         <v>9600</v>
       </c>
-      <c r="I20" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K20" s="7">
-        <v>8</v>
-      </c>
-      <c r="L20" s="15">
+      <c r="I20" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K20" s="5">
+        <v>8</v>
+      </c>
+      <c r="L20" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="5">
+      <c r="A21" s="39"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="3">
         <v>3</v>
       </c>
-      <c r="G21" s="6" t="s">
+      <c r="G21" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H21" s="7">
+      <c r="H21" s="5">
         <v>9600</v>
       </c>
-      <c r="I21" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K21" s="7">
-        <v>8</v>
-      </c>
-      <c r="L21" s="15">
+      <c r="I21" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K21" s="5">
+        <v>8</v>
+      </c>
+      <c r="L21" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="5">
+      <c r="A22" s="39"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="3">
         <v>4</v>
       </c>
-      <c r="G22" s="6" t="s">
+      <c r="G22" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H22" s="7">
+      <c r="H22" s="5">
         <v>9600</v>
       </c>
-      <c r="I22" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K22" s="7">
-        <v>8</v>
-      </c>
-      <c r="L22" s="15">
+      <c r="I22" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K22" s="5">
+        <v>8</v>
+      </c>
+      <c r="L22" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="5">
+      <c r="A23" s="39"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="3">
         <v>5</v>
       </c>
-      <c r="G23" s="6" t="s">
+      <c r="G23" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H23" s="7">
+      <c r="H23" s="5">
         <v>115200</v>
       </c>
-      <c r="I23" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K23" s="7">
-        <v>8</v>
-      </c>
-      <c r="L23" s="15">
+      <c r="I23" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K23" s="5">
+        <v>8</v>
+      </c>
+      <c r="L23" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="5">
+      <c r="A24" s="39"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="3">
         <v>6</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="G24" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H24" s="7">
+      <c r="H24" s="5">
         <v>9600</v>
       </c>
-      <c r="I24" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K24" s="7">
-        <v>8</v>
-      </c>
-      <c r="L24" s="15">
+      <c r="I24" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K24" s="5">
+        <v>8</v>
+      </c>
+      <c r="L24" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="5">
+      <c r="A25" s="39"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="3">
         <v>7</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="G25" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H25" s="7">
+      <c r="H25" s="5">
         <v>9600</v>
       </c>
-      <c r="I25" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K25" s="7">
-        <v>8</v>
-      </c>
-      <c r="L25" s="15">
+      <c r="I25" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K25" s="5">
+        <v>8</v>
+      </c>
+      <c r="L25" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="5">
-        <v>8</v>
-      </c>
-      <c r="G26" s="6" t="s">
+      <c r="A26" s="39"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="3">
+        <v>8</v>
+      </c>
+      <c r="G26" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H26" s="7">
+      <c r="H26" s="5">
         <v>9600</v>
       </c>
-      <c r="I26" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K26" s="7">
-        <v>8</v>
-      </c>
-      <c r="L26" s="15">
+      <c r="I26" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K26" s="5">
+        <v>8</v>
+      </c>
+      <c r="L26" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="5">
+      <c r="A27" s="39"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="3">
         <v>9</v>
       </c>
-      <c r="G27" s="6" t="s">
+      <c r="G27" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H27" s="7">
+      <c r="H27" s="5">
         <v>9600</v>
       </c>
-      <c r="I27" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K27" s="7">
-        <v>8</v>
-      </c>
-      <c r="L27" s="15">
+      <c r="I27" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K27" s="5">
+        <v>8</v>
+      </c>
+      <c r="L27" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="5">
+      <c r="A28" s="39"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="3">
         <v>10</v>
       </c>
-      <c r="G28" s="6" t="s">
+      <c r="G28" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="H28" s="7">
+      <c r="H28" s="5">
         <v>9600</v>
       </c>
-      <c r="I28" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K28" s="7">
-        <v>8</v>
-      </c>
-      <c r="L28" s="15">
+      <c r="I28" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K28" s="5">
+        <v>8</v>
+      </c>
+      <c r="L28" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="5">
+      <c r="A29" s="39"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="3">
         <v>11</v>
       </c>
-      <c r="G29" s="6" t="s">
+      <c r="G29" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="H29" s="7">
+      <c r="H29" s="5">
         <v>9600</v>
       </c>
-      <c r="I29" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K29" s="7">
-        <v>8</v>
-      </c>
-      <c r="L29" s="15">
+      <c r="I29" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K29" s="5">
+        <v>8</v>
+      </c>
+      <c r="L29" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="5">
+      <c r="A30" s="39"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="3">
         <v>12</v>
       </c>
-      <c r="G30" s="6" t="s">
+      <c r="G30" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H30" s="7">
+      <c r="H30" s="5">
         <v>19200</v>
       </c>
-      <c r="I30" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K30" s="7">
-        <v>8</v>
-      </c>
-      <c r="L30" s="15">
+      <c r="I30" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K30" s="5">
+        <v>8</v>
+      </c>
+      <c r="L30" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="5">
+      <c r="A31" s="39"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="3">
         <v>13</v>
       </c>
-      <c r="G31" s="6" t="s">
+      <c r="G31" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H31" s="7">
+      <c r="H31" s="5">
         <v>9600</v>
       </c>
-      <c r="I31" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K31" s="7">
-        <v>8</v>
-      </c>
-      <c r="L31" s="15">
+      <c r="I31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K31" s="5">
+        <v>8</v>
+      </c>
+      <c r="L31" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="5">
-        <v>14</v>
-      </c>
-      <c r="G32" s="6" t="s">
+      <c r="A32" s="39"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="3">
+        <v>14</v>
+      </c>
+      <c r="G32" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H32" s="7">
+      <c r="H32" s="5">
         <v>9600</v>
       </c>
-      <c r="I32" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K32" s="7">
-        <v>8</v>
-      </c>
-      <c r="L32" s="15">
+      <c r="I32" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K32" s="5">
+        <v>8</v>
+      </c>
+      <c r="L32" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="14"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="5">
+      <c r="A33" s="39"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="3">
         <v>15</v>
       </c>
-      <c r="G33" s="6" t="s">
+      <c r="G33" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H33" s="7">
+      <c r="H33" s="5">
         <v>9600</v>
       </c>
-      <c r="I33" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K33" s="7">
-        <v>8</v>
-      </c>
-      <c r="L33" s="15">
+      <c r="I33" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K33" s="5">
+        <v>8</v>
+      </c>
+      <c r="L33" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="5">
+      <c r="A34" s="39"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="3">
         <v>16</v>
       </c>
-      <c r="G34" s="6" t="s">
+      <c r="G34" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="H34" s="7">
+      <c r="H34" s="5">
         <v>9600</v>
       </c>
-      <c r="I34" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K34" s="7">
-        <v>8</v>
-      </c>
-      <c r="L34" s="15">
+      <c r="I34" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K34" s="5">
+        <v>8</v>
+      </c>
+      <c r="L34" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="16"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="18">
+      <c r="A35" s="40"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="11">
         <v>17</v>
       </c>
-      <c r="G35" s="19" t="s">
+      <c r="G35" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="H35" s="20">
+      <c r="H35" s="13">
         <v>9600</v>
       </c>
-      <c r="I35" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="J35" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="K35" s="20">
-        <v>8</v>
-      </c>
-      <c r="L35" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I35" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="J35" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="K35" s="13">
+        <v>8</v>
+      </c>
+      <c r="L35" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="11"/>
-      <c r="L36" s="49"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="50" t="s">
+      <c r="B36" s="49"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="49"/>
+      <c r="G36" s="49"/>
+      <c r="H36" s="49"/>
+      <c r="I36" s="49"/>
+      <c r="J36" s="49"/>
+      <c r="K36" s="49"/>
+      <c r="L36" s="50"/>
+    </row>
+    <row r="37" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="46">
-        <v>1</v>
-      </c>
-      <c r="G37" s="6" t="s">
+      <c r="B37" s="49"/>
+      <c r="C37" s="49"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="49">
+        <v>1</v>
+      </c>
+      <c r="G37" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="H37" s="47">
+      <c r="H37" s="49">
         <v>115200</v>
       </c>
-      <c r="I37" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="J37" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="K37" s="47">
-        <v>8</v>
-      </c>
-      <c r="L37" s="51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="50" t="s">
+      <c r="I37" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="J37" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="K37" s="49">
+        <v>8</v>
+      </c>
+      <c r="L37" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6" t="s">
+      <c r="B38" s="49"/>
+      <c r="C38" s="49"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="49"/>
+      <c r="G38" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
-      <c r="L38" s="52"/>
+      <c r="H38" s="49"/>
+      <c r="I38" s="49"/>
+      <c r="J38" s="49"/>
+      <c r="K38" s="49"/>
+      <c r="L38" s="50"/>
     </row>
     <row r="39" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="53" t="s">
+      <c r="A39" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="B39" s="19"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="19" t="s">
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="19"/>
-      <c r="K39" s="19"/>
-      <c r="L39" s="54"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="F1:L1"/>
+    <mergeCell ref="C3:C18"/>
+    <mergeCell ref="B3:B18"/>
+    <mergeCell ref="A3:A18"/>
+    <mergeCell ref="D3:D18"/>
+    <mergeCell ref="E3:E18"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A1:C1"/>
     <mergeCell ref="A19:A35"/>
     <mergeCell ref="B19:B35"/>
     <mergeCell ref="C19:C35"/>
     <mergeCell ref="D19:D35"/>
     <mergeCell ref="E19:E35"/>
-    <mergeCell ref="A3:A18"/>
-    <mergeCell ref="D3:D18"/>
-    <mergeCell ref="E3:E18"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="F1:L1"/>
-    <mergeCell ref="C3:C18"/>
-    <mergeCell ref="B3:B18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -1985,904 +2020,899 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="23" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="25"/>
-      <c r="F1" s="23" t="s">
+      <c r="E1" s="47"/>
+      <c r="F1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="25"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="47"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="G2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="H2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="I2" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="J2" s="27" t="s">
+      <c r="J2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="27" t="s">
+      <c r="K2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="28" t="s">
+      <c r="L2" s="18" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="37">
-        <v>1</v>
-      </c>
-      <c r="G3" s="38" t="s">
+      <c r="E3" s="41"/>
+      <c r="F3" s="27">
+        <v>1</v>
+      </c>
+      <c r="G3" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="H3" s="39">
+      <c r="H3" s="29">
         <v>38400</v>
       </c>
-      <c r="I3" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="41"/>
-      <c r="K3" s="39">
-        <v>8</v>
-      </c>
-      <c r="L3" s="40">
+      <c r="I3" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="31"/>
+      <c r="K3" s="29">
+        <v>8</v>
+      </c>
+      <c r="L3" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="32">
+      <c r="A4" s="39"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="22">
         <v>2</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="G4" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="H4" s="34">
+      <c r="H4" s="24">
         <v>38400</v>
       </c>
-      <c r="I4" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="42"/>
-      <c r="K4" s="34">
-        <v>8</v>
-      </c>
-      <c r="L4" s="35">
+      <c r="I4" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="32"/>
+      <c r="K4" s="24">
+        <v>8</v>
+      </c>
+      <c r="L4" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="32">
+      <c r="A5" s="39"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="22">
         <v>3</v>
       </c>
-      <c r="G5" s="33" t="s">
+      <c r="G5" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="H5" s="34">
+      <c r="H5" s="24">
         <v>38400</v>
       </c>
-      <c r="I5" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" s="42"/>
-      <c r="K5" s="34">
-        <v>8</v>
-      </c>
-      <c r="L5" s="35">
+      <c r="I5" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="32"/>
+      <c r="K5" s="24">
+        <v>8</v>
+      </c>
+      <c r="L5" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="5">
+      <c r="A6" s="39"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="3">
         <v>4</v>
       </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="7">
+      <c r="G6" s="4"/>
+      <c r="H6" s="5">
         <v>38400</v>
       </c>
-      <c r="I6" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" s="43"/>
-      <c r="K6" s="7">
-        <v>8</v>
-      </c>
-      <c r="L6" s="15">
+      <c r="I6" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="33"/>
+      <c r="K6" s="5">
+        <v>8</v>
+      </c>
+      <c r="L6" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="5">
+      <c r="A7" s="39"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="3">
         <v>5</v>
       </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="7">
+      <c r="G7" s="4"/>
+      <c r="H7" s="5">
         <v>38400</v>
       </c>
-      <c r="I7" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" s="43"/>
-      <c r="K7" s="7">
-        <v>8</v>
-      </c>
-      <c r="L7" s="15">
+      <c r="I7" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="33"/>
+      <c r="K7" s="5">
+        <v>8</v>
+      </c>
+      <c r="L7" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="5">
+      <c r="A8" s="39"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="3">
         <v>6</v>
       </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="7">
+      <c r="G8" s="4"/>
+      <c r="H8" s="5">
         <v>38400</v>
       </c>
-      <c r="I8" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" s="43"/>
-      <c r="K8" s="7">
-        <v>8</v>
-      </c>
-      <c r="L8" s="15">
+      <c r="I8" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="33"/>
+      <c r="K8" s="5">
+        <v>8</v>
+      </c>
+      <c r="L8" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="5">
+      <c r="A9" s="39"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="3">
         <v>7</v>
       </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="7">
+      <c r="G9" s="4"/>
+      <c r="H9" s="5">
         <v>38400</v>
       </c>
-      <c r="I9" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="43"/>
-      <c r="K9" s="7">
-        <v>8</v>
-      </c>
-      <c r="L9" s="15">
+      <c r="I9" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="33"/>
+      <c r="K9" s="5">
+        <v>8</v>
+      </c>
+      <c r="L9" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="5">
-        <v>8</v>
-      </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="7">
+      <c r="A10" s="39"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="3">
+        <v>8</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="5">
         <v>38400</v>
       </c>
-      <c r="I10" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="J10" s="43"/>
-      <c r="K10" s="7">
-        <v>8</v>
-      </c>
-      <c r="L10" s="15">
+      <c r="I10" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" s="33"/>
+      <c r="K10" s="5">
+        <v>8</v>
+      </c>
+      <c r="L10" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="32">
+      <c r="A11" s="39"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="22">
         <v>9</v>
       </c>
-      <c r="G11" s="33" t="s">
+      <c r="G11" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="H11" s="34">
+      <c r="H11" s="24">
         <v>38400</v>
       </c>
-      <c r="I11" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="J11" s="42"/>
-      <c r="K11" s="34">
-        <v>8</v>
-      </c>
-      <c r="L11" s="35">
+      <c r="I11" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" s="32"/>
+      <c r="K11" s="24">
+        <v>8</v>
+      </c>
+      <c r="L11" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="32">
+      <c r="A12" s="39"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="22">
         <v>10</v>
       </c>
-      <c r="G12" s="33" t="s">
+      <c r="G12" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="H12" s="34">
+      <c r="H12" s="24">
         <v>38400</v>
       </c>
-      <c r="I12" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="J12" s="42"/>
-      <c r="K12" s="34">
-        <v>8</v>
-      </c>
-      <c r="L12" s="35">
+      <c r="I12" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12" s="32"/>
+      <c r="K12" s="24">
+        <v>8</v>
+      </c>
+      <c r="L12" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="32">
+      <c r="A13" s="39"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="22">
         <v>11</v>
       </c>
-      <c r="G13" s="33" t="s">
+      <c r="G13" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="H13" s="34">
+      <c r="H13" s="24">
         <v>38400</v>
       </c>
-      <c r="I13" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="J13" s="42"/>
-      <c r="K13" s="34">
-        <v>8</v>
-      </c>
-      <c r="L13" s="35">
+      <c r="I13" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="J13" s="32"/>
+      <c r="K13" s="24">
+        <v>8</v>
+      </c>
+      <c r="L13" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="5">
+      <c r="A14" s="39"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="3">
         <v>12</v>
       </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="7">
+      <c r="G14" s="4"/>
+      <c r="H14" s="5">
         <v>38400</v>
       </c>
-      <c r="I14" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="J14" s="43"/>
-      <c r="K14" s="7">
-        <v>8</v>
-      </c>
-      <c r="L14" s="15">
+      <c r="I14" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="J14" s="33"/>
+      <c r="K14" s="5">
+        <v>8</v>
+      </c>
+      <c r="L14" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="5">
+      <c r="A15" s="39"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="3">
         <v>13</v>
       </c>
-      <c r="G15" s="6"/>
-      <c r="H15" s="7">
+      <c r="G15" s="4"/>
+      <c r="H15" s="5">
         <v>38400</v>
       </c>
-      <c r="I15" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="J15" s="43"/>
-      <c r="K15" s="7">
-        <v>8</v>
-      </c>
-      <c r="L15" s="15">
+      <c r="I15" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="J15" s="33"/>
+      <c r="K15" s="5">
+        <v>8</v>
+      </c>
+      <c r="L15" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="5">
-        <v>14</v>
-      </c>
-      <c r="G16" s="6"/>
-      <c r="H16" s="7">
+      <c r="A16" s="39"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="3">
+        <v>14</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="5">
         <v>38400</v>
       </c>
-      <c r="I16" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="J16" s="43"/>
-      <c r="K16" s="7">
-        <v>8</v>
-      </c>
-      <c r="L16" s="15">
+      <c r="I16" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16" s="33"/>
+      <c r="K16" s="5">
+        <v>8</v>
+      </c>
+      <c r="L16" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="5">
+      <c r="A17" s="39"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="3">
         <v>15</v>
       </c>
-      <c r="G17" s="6"/>
-      <c r="H17" s="7">
+      <c r="G17" s="4"/>
+      <c r="H17" s="5">
         <v>38400</v>
       </c>
-      <c r="I17" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="J17" s="43"/>
-      <c r="K17" s="7">
-        <v>8</v>
-      </c>
-      <c r="L17" s="15">
+      <c r="I17" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17" s="33"/>
+      <c r="K17" s="5">
+        <v>8</v>
+      </c>
+      <c r="L17" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="16"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="18">
+      <c r="A18" s="40"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="11">
         <v>16</v>
       </c>
-      <c r="G18" s="19"/>
-      <c r="H18" s="36">
+      <c r="G18" s="12"/>
+      <c r="H18" s="26">
         <v>38400</v>
       </c>
-      <c r="I18" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="J18" s="44"/>
-      <c r="K18" s="20">
-        <v>8</v>
-      </c>
-      <c r="L18" s="21">
+      <c r="I18" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="J18" s="34"/>
+      <c r="K18" s="13">
+        <v>8</v>
+      </c>
+      <c r="L18" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9" t="s">
+      <c r="C19" s="41"/>
+      <c r="D19" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="29">
-        <v>1</v>
-      </c>
-      <c r="G19" s="30"/>
-      <c r="H19" s="31">
+      <c r="E19" s="41"/>
+      <c r="F19" s="19">
+        <v>1</v>
+      </c>
+      <c r="G19" s="20"/>
+      <c r="H19" s="21">
         <v>19200</v>
       </c>
-      <c r="I19" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="J19" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="K19" s="12">
-        <v>8</v>
-      </c>
-      <c r="L19" s="13">
+      <c r="I19" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="J19" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="K19" s="8">
+        <v>8</v>
+      </c>
+      <c r="L19" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="32">
+      <c r="A20" s="39"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="22">
         <v>2</v>
       </c>
-      <c r="G20" s="33" t="s">
+      <c r="G20" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="H20" s="34">
+      <c r="H20" s="24">
         <v>9600</v>
       </c>
-      <c r="I20" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="J20" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="K20" s="34">
-        <v>8</v>
-      </c>
-      <c r="L20" s="35">
+      <c r="I20" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="J20" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="K20" s="24">
+        <v>8</v>
+      </c>
+      <c r="L20" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="32">
+      <c r="A21" s="39"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="22">
         <v>3</v>
       </c>
-      <c r="G21" s="33" t="s">
+      <c r="G21" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="H21" s="34">
+      <c r="H21" s="24">
         <v>9600</v>
       </c>
-      <c r="I21" s="42" t="s">
+      <c r="I21" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="J21" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="K21" s="34">
+      <c r="J21" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="K21" s="24">
         <v>7</v>
       </c>
-      <c r="L21" s="35">
+      <c r="L21" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="5">
+      <c r="A22" s="39"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="3">
         <v>4</v>
       </c>
-      <c r="G22" s="6"/>
-      <c r="H22" s="7">
+      <c r="G22" s="4"/>
+      <c r="H22" s="5">
         <v>115200</v>
       </c>
-      <c r="I22" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="J22" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="K22" s="7">
-        <v>8</v>
-      </c>
-      <c r="L22" s="15">
+      <c r="I22" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="J22" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="K22" s="5">
+        <v>8</v>
+      </c>
+      <c r="L22" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="32">
+      <c r="A23" s="39"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="22">
         <v>5</v>
       </c>
-      <c r="G23" s="33" t="s">
+      <c r="G23" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="H23" s="34">
+      <c r="H23" s="24">
         <v>9600</v>
       </c>
-      <c r="I23" s="42" t="s">
+      <c r="I23" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="J23" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="K23" s="34">
+      <c r="J23" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="K23" s="24">
         <v>7</v>
       </c>
-      <c r="L23" s="35">
+      <c r="L23" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="5">
+      <c r="A24" s="39"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="3">
         <v>6</v>
       </c>
-      <c r="G24" s="6"/>
-      <c r="H24" s="7">
+      <c r="G24" s="4"/>
+      <c r="H24" s="5">
         <v>9600</v>
       </c>
-      <c r="I24" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="J24" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="K24" s="7">
-        <v>8</v>
-      </c>
-      <c r="L24" s="15">
+      <c r="I24" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="J24" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="K24" s="5">
+        <v>8</v>
+      </c>
+      <c r="L24" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="5">
+      <c r="A25" s="39"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="3">
         <v>7</v>
       </c>
-      <c r="G25" s="6"/>
-      <c r="H25" s="7">
+      <c r="G25" s="4"/>
+      <c r="H25" s="5">
         <v>9600</v>
       </c>
-      <c r="I25" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="J25" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="K25" s="7">
-        <v>8</v>
-      </c>
-      <c r="L25" s="15">
+      <c r="I25" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="J25" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="K25" s="5">
+        <v>8</v>
+      </c>
+      <c r="L25" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="5">
-        <v>8</v>
-      </c>
-      <c r="G26" s="6"/>
-      <c r="H26" s="7">
+      <c r="A26" s="39"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="3">
+        <v>8</v>
+      </c>
+      <c r="G26" s="4"/>
+      <c r="H26" s="5">
         <v>9600</v>
       </c>
-      <c r="I26" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="J26" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="K26" s="7">
-        <v>8</v>
-      </c>
-      <c r="L26" s="15">
+      <c r="I26" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="J26" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="K26" s="5">
+        <v>8</v>
+      </c>
+      <c r="L26" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="32">
+      <c r="A27" s="39"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="22">
         <v>9</v>
       </c>
-      <c r="G27" s="33" t="s">
+      <c r="G27" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="H27" s="34">
+      <c r="H27" s="24">
         <v>19200</v>
       </c>
-      <c r="I27" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="J27" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="K27" s="34">
-        <v>8</v>
-      </c>
-      <c r="L27" s="35">
+      <c r="I27" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="J27" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="K27" s="24">
+        <v>8</v>
+      </c>
+      <c r="L27" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="5">
+      <c r="A28" s="39"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="3">
         <v>10</v>
       </c>
-      <c r="G28" s="6"/>
-      <c r="H28" s="7">
+      <c r="G28" s="4"/>
+      <c r="H28" s="5">
         <v>9600</v>
       </c>
-      <c r="I28" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="J28" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="K28" s="7">
-        <v>8</v>
-      </c>
-      <c r="L28" s="15">
+      <c r="I28" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="J28" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="K28" s="5">
+        <v>8</v>
+      </c>
+      <c r="L28" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="5">
+      <c r="A29" s="39"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="3">
         <v>11</v>
       </c>
-      <c r="G29" s="6"/>
-      <c r="H29" s="7">
+      <c r="G29" s="4"/>
+      <c r="H29" s="5">
         <v>9600</v>
       </c>
-      <c r="I29" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="J29" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="K29" s="7">
-        <v>8</v>
-      </c>
-      <c r="L29" s="15">
+      <c r="I29" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="J29" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="K29" s="5">
+        <v>8</v>
+      </c>
+      <c r="L29" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="5">
+      <c r="A30" s="39"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="3">
         <v>12</v>
       </c>
-      <c r="G30" s="6"/>
-      <c r="H30" s="7">
+      <c r="G30" s="4"/>
+      <c r="H30" s="5">
         <v>19200</v>
       </c>
-      <c r="I30" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="J30" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="K30" s="7">
-        <v>8</v>
-      </c>
-      <c r="L30" s="15">
+      <c r="I30" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="J30" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="K30" s="5">
+        <v>8</v>
+      </c>
+      <c r="L30" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="5">
+      <c r="A31" s="39"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="3">
         <v>13</v>
       </c>
-      <c r="G31" s="6"/>
-      <c r="H31" s="7">
+      <c r="G31" s="4"/>
+      <c r="H31" s="5">
         <v>9600</v>
       </c>
-      <c r="I31" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="J31" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="K31" s="7">
-        <v>8</v>
-      </c>
-      <c r="L31" s="15">
+      <c r="I31" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="J31" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="K31" s="5">
+        <v>8</v>
+      </c>
+      <c r="L31" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="5">
-        <v>14</v>
-      </c>
-      <c r="G32" s="6"/>
-      <c r="H32" s="7">
+      <c r="A32" s="39"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="3">
+        <v>14</v>
+      </c>
+      <c r="G32" s="4"/>
+      <c r="H32" s="5">
         <v>9600</v>
       </c>
-      <c r="I32" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="J32" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="K32" s="7">
-        <v>8</v>
-      </c>
-      <c r="L32" s="15">
+      <c r="I32" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="J32" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="K32" s="5">
+        <v>8</v>
+      </c>
+      <c r="L32" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="14"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="5">
+      <c r="A33" s="39"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="3">
         <v>15</v>
       </c>
-      <c r="G33" s="6"/>
-      <c r="H33" s="7">
+      <c r="G33" s="4"/>
+      <c r="H33" s="5">
         <v>9600</v>
       </c>
-      <c r="I33" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="J33" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="K33" s="7">
-        <v>8</v>
-      </c>
-      <c r="L33" s="15">
+      <c r="I33" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="J33" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="K33" s="5">
+        <v>8</v>
+      </c>
+      <c r="L33" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="16"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="18">
+      <c r="A34" s="40"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="11">
         <v>16</v>
       </c>
-      <c r="G34" s="19"/>
-      <c r="H34" s="20">
+      <c r="G34" s="12"/>
+      <c r="H34" s="13">
         <v>9600</v>
       </c>
-      <c r="I34" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="J34" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="K34" s="20">
-        <v>8</v>
-      </c>
-      <c r="L34" s="21">
+      <c r="I34" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="J34" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="K34" s="13">
+        <v>8</v>
+      </c>
+      <c r="L34" s="14">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A19:A34"/>
-    <mergeCell ref="B19:B34"/>
-    <mergeCell ref="C19:C34"/>
-    <mergeCell ref="D19:D34"/>
-    <mergeCell ref="E19:E34"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:L1"/>
@@ -2891,6 +2921,11 @@
     <mergeCell ref="C3:C18"/>
     <mergeCell ref="D3:D18"/>
     <mergeCell ref="E3:E18"/>
+    <mergeCell ref="A19:A34"/>
+    <mergeCell ref="B19:B34"/>
+    <mergeCell ref="C19:C34"/>
+    <mergeCell ref="D19:D34"/>
+    <mergeCell ref="E19:E34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
